--- a/Code/Results/Cases/Case_2_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025053549687267</v>
+        <v>1.05080186434227</v>
       </c>
       <c r="D2">
-        <v>1.037413121388023</v>
+        <v>1.050249810047854</v>
       </c>
       <c r="E2">
-        <v>1.016174651736237</v>
+        <v>1.060003990030804</v>
       </c>
       <c r="F2">
-        <v>1.023866130576102</v>
+        <v>1.067980466610889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056968587892325</v>
+        <v>1.046606682602516</v>
       </c>
       <c r="J2">
-        <v>1.046509890872535</v>
+        <v>1.05583309628923</v>
       </c>
       <c r="K2">
-        <v>1.048374723340223</v>
+        <v>1.053004610620832</v>
       </c>
       <c r="L2">
-        <v>1.027413154822729</v>
+        <v>1.06273195172191</v>
       </c>
       <c r="M2">
-        <v>1.035002691383617</v>
+        <v>1.070686875065925</v>
       </c>
       <c r="N2">
-        <v>1.047996054953936</v>
+        <v>1.05733250039171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031246506656374</v>
+        <v>1.052014061284733</v>
       </c>
       <c r="D3">
-        <v>1.042090518924167</v>
+        <v>1.051167977104799</v>
       </c>
       <c r="E3">
-        <v>1.02274145843118</v>
+        <v>1.061413608125844</v>
       </c>
       <c r="F3">
-        <v>1.030913705360925</v>
+        <v>1.069493681379185</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059472278201582</v>
+        <v>1.047005694322364</v>
       </c>
       <c r="J3">
-        <v>1.05092014605129</v>
+        <v>1.056693839362022</v>
       </c>
       <c r="K3">
-        <v>1.052211744691427</v>
+        <v>1.053734913709601</v>
       </c>
       <c r="L3">
-        <v>1.033091397459115</v>
+        <v>1.06395440644704</v>
       </c>
       <c r="M3">
-        <v>1.041165747697681</v>
+        <v>1.072014246483254</v>
       </c>
       <c r="N3">
-        <v>1.052412573200909</v>
+        <v>1.058194465818394</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035143799879331</v>
+        <v>1.05279746527675</v>
       </c>
       <c r="D4">
-        <v>1.045035788098514</v>
+        <v>1.051761189961945</v>
       </c>
       <c r="E4">
-        <v>1.026882397064569</v>
+        <v>1.062325463957048</v>
       </c>
       <c r="F4">
-        <v>1.035357968989297</v>
+        <v>1.070472704132239</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061035255103412</v>
+        <v>1.047262032593623</v>
       </c>
       <c r="J4">
-        <v>1.053689330448507</v>
+        <v>1.057249304227319</v>
       </c>
       <c r="K4">
-        <v>1.054619435711329</v>
+        <v>1.054205938955303</v>
       </c>
       <c r="L4">
-        <v>1.036666850172173</v>
+        <v>1.064744627865078</v>
       </c>
       <c r="M4">
-        <v>1.045047591228377</v>
+        <v>1.072872506913524</v>
       </c>
       <c r="N4">
-        <v>1.0551856901576</v>
+        <v>1.058750719507513</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036757163698133</v>
+        <v>1.053126579680875</v>
       </c>
       <c r="D5">
-        <v>1.046255388033378</v>
+        <v>1.052010362303743</v>
       </c>
       <c r="E5">
-        <v>1.028598676150877</v>
+        <v>1.062708750291446</v>
       </c>
       <c r="F5">
-        <v>1.037200014364858</v>
+        <v>1.070884259536921</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061679209906514</v>
+        <v>1.047369355716905</v>
       </c>
       <c r="J5">
-        <v>1.05483415757433</v>
+        <v>1.057482466349722</v>
       </c>
       <c r="K5">
-        <v>1.055614424682651</v>
+        <v>1.054403593544523</v>
       </c>
       <c r="L5">
-        <v>1.038147506765165</v>
+        <v>1.065076652413702</v>
       </c>
       <c r="M5">
-        <v>1.046655398993619</v>
+        <v>1.073233171366599</v>
       </c>
       <c r="N5">
-        <v>1.056332143069254</v>
+        <v>1.058984212746873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037026620292966</v>
+        <v>1.053181826123727</v>
       </c>
       <c r="D6">
-        <v>1.046459098364909</v>
+        <v>1.052052186917682</v>
       </c>
       <c r="E6">
-        <v>1.028885443149727</v>
+        <v>1.062773102497405</v>
       </c>
       <c r="F6">
-        <v>1.037507798329344</v>
+        <v>1.070953360134082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061786578429089</v>
+        <v>1.04738734988637</v>
       </c>
       <c r="J6">
-        <v>1.055025270120289</v>
+        <v>1.057521594525255</v>
       </c>
       <c r="K6">
-        <v>1.055780500447599</v>
+        <v>1.054436759301476</v>
       </c>
       <c r="L6">
-        <v>1.038394830867484</v>
+        <v>1.065132390098241</v>
       </c>
       <c r="M6">
-        <v>1.046923977913132</v>
+        <v>1.073293719951136</v>
       </c>
       <c r="N6">
-        <v>1.05652352701695</v>
+        <v>1.059023396488904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035165454579171</v>
+        <v>1.052801863813898</v>
       </c>
       <c r="D7">
-        <v>1.045052156389315</v>
+        <v>1.051764520255037</v>
       </c>
       <c r="E7">
-        <v>1.026905424922409</v>
+        <v>1.062330585669284</v>
       </c>
       <c r="F7">
-        <v>1.035382684089195</v>
+        <v>1.070478203450725</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061043910523676</v>
+        <v>1.047263468383749</v>
       </c>
       <c r="J7">
-        <v>1.053704702524114</v>
+        <v>1.057252421144365</v>
       </c>
       <c r="K7">
-        <v>1.054632797414574</v>
+        <v>1.054208581455329</v>
       </c>
       <c r="L7">
-        <v>1.036686721551845</v>
+        <v>1.064749065113169</v>
       </c>
       <c r="M7">
-        <v>1.045069167991742</v>
+        <v>1.072877326706551</v>
       </c>
       <c r="N7">
-        <v>1.055201084063317</v>
+        <v>1.058753840850938</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027170050416553</v>
+        <v>1.051211734450589</v>
       </c>
       <c r="D8">
-        <v>1.039011255977325</v>
+        <v>1.05056029685345</v>
       </c>
       <c r="E8">
-        <v>1.018417180755314</v>
+        <v>1.060480434012661</v>
       </c>
       <c r="F8">
-        <v>1.026272812284362</v>
+        <v>1.06849189420825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057826880559637</v>
+        <v>1.046741914032007</v>
       </c>
       <c r="J8">
-        <v>1.048018427648781</v>
+        <v>1.056124299017303</v>
       </c>
       <c r="K8">
-        <v>1.049687503918633</v>
+        <v>1.053251737779101</v>
       </c>
       <c r="L8">
-        <v>1.029353327264153</v>
+        <v>1.063145251845415</v>
       </c>
       <c r="M8">
-        <v>1.037108283823651</v>
+        <v>1.071135601140844</v>
       </c>
       <c r="N8">
-        <v>1.049506734025436</v>
+        <v>1.057624116661058</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012176686198943</v>
+        <v>1.04840216086682</v>
       </c>
       <c r="D9">
-        <v>1.027700615325763</v>
+        <v>1.048431309271082</v>
       </c>
       <c r="E9">
-        <v>1.002565182863048</v>
+        <v>1.057218018020967</v>
       </c>
       <c r="F9">
-        <v>1.009260664992315</v>
+        <v>1.064990557250941</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051694202273059</v>
+        <v>1.045808654842678</v>
       </c>
       <c r="J9">
-        <v>1.037306662241126</v>
+        <v>1.054124865025325</v>
       </c>
       <c r="K9">
-        <v>1.040359705902385</v>
+        <v>1.051553860747625</v>
       </c>
       <c r="L9">
-        <v>1.015616778413161</v>
+        <v>1.060312898741372</v>
       </c>
       <c r="M9">
-        <v>1.022205260143484</v>
+        <v>1.068061376512633</v>
       </c>
       <c r="N9">
-        <v>1.038779756682245</v>
+        <v>1.055621843243473</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001476620119732</v>
+        <v>1.046523821947692</v>
       </c>
       <c r="D10">
-        <v>1.019646117050204</v>
+        <v>1.047007169813101</v>
       </c>
       <c r="E10">
-        <v>0.9912937172623769</v>
+        <v>1.055041290496678</v>
       </c>
       <c r="F10">
-        <v>0.9971639569045117</v>
+        <v>1.062655208376574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047252538278464</v>
+        <v>1.045176850233391</v>
       </c>
       <c r="J10">
-        <v>1.029631774601968</v>
+        <v>1.052784008136719</v>
       </c>
       <c r="K10">
-        <v>1.033669489135562</v>
+        <v>1.050413896604615</v>
       </c>
       <c r="L10">
-        <v>1.005821965946497</v>
+        <v>1.058420208364607</v>
       </c>
       <c r="M10">
-        <v>1.011584606482246</v>
+        <v>1.066008198360382</v>
       </c>
       <c r="N10">
-        <v>1.031093969822318</v>
+        <v>1.054279082184287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9966515765923456</v>
+        <v>1.04570917932395</v>
       </c>
       <c r="D11">
-        <v>1.016019531806827</v>
+        <v>1.046389333722281</v>
       </c>
       <c r="E11">
-        <v>0.9862200082253872</v>
+        <v>1.054098254166484</v>
       </c>
       <c r="F11">
-        <v>0.9917184795571418</v>
+        <v>1.061643639751161</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045234891365584</v>
+        <v>1.044900970075839</v>
       </c>
       <c r="J11">
-        <v>1.026164320403889</v>
+        <v>1.052201495776108</v>
       </c>
       <c r="K11">
-        <v>1.030645537055495</v>
+        <v>1.049918344820675</v>
       </c>
       <c r="L11">
-        <v>1.001406559451175</v>
+        <v>1.057599536142916</v>
       </c>
       <c r="M11">
-        <v>1.006798281572066</v>
+        <v>1.065118210722145</v>
       </c>
       <c r="N11">
-        <v>1.027621591441556</v>
+        <v>1.053695742589308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9948281290101809</v>
+        <v>1.045406383943557</v>
       </c>
       <c r="D12">
-        <v>1.014649946392539</v>
+        <v>1.046159663112978</v>
       </c>
       <c r="E12">
-        <v>0.984303859049979</v>
+        <v>1.053747887752961</v>
       </c>
       <c r="F12">
-        <v>0.9896618618267927</v>
+        <v>1.061267839859075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044470246224261</v>
+        <v>1.044798148101218</v>
       </c>
       <c r="J12">
-        <v>1.024852996088221</v>
+        <v>1.051984834518383</v>
       </c>
       <c r="K12">
-        <v>1.029501757573194</v>
+        <v>1.049733981032742</v>
       </c>
       <c r="L12">
-        <v>0.9997380797795494</v>
+        <v>1.057294527739424</v>
       </c>
       <c r="M12">
-        <v>1.004989841077559</v>
+        <v>1.064787481818916</v>
       </c>
       <c r="N12">
-        <v>1.026308404894948</v>
+        <v>1.053478773647746</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9952207184515205</v>
+        <v>1.045471343735009</v>
       </c>
       <c r="D13">
-        <v>1.01494477403817</v>
+        <v>1.046208936366233</v>
       </c>
       <c r="E13">
-        <v>0.9847163511439497</v>
+        <v>1.053823046284209</v>
       </c>
       <c r="F13">
-        <v>0.9901045961115579</v>
+        <v>1.061348452946586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04463497076896</v>
+        <v>1.044820219527706</v>
       </c>
       <c r="J13">
-        <v>1.025135365927856</v>
+        <v>1.052031322273991</v>
       </c>
       <c r="K13">
-        <v>1.029748057329229</v>
+        <v>1.04977354102382</v>
       </c>
       <c r="L13">
-        <v>1.000097298205798</v>
+        <v>1.057359961044173</v>
       </c>
       <c r="M13">
-        <v>1.005379183643263</v>
+        <v>1.064858431070424</v>
       </c>
       <c r="N13">
-        <v>1.026591175732143</v>
+        <v>1.0535253274213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9965015013398602</v>
+        <v>1.045684154284207</v>
       </c>
       <c r="D14">
-        <v>1.015906790767055</v>
+        <v>1.046370352738705</v>
       </c>
       <c r="E14">
-        <v>0.9860622780281563</v>
+        <v>1.054069294449813</v>
       </c>
       <c r="F14">
-        <v>0.9915491879791632</v>
+        <v>1.06161257723886</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045172001981585</v>
+        <v>1.044892477883438</v>
       </c>
       <c r="J14">
-        <v>1.026056412905827</v>
+        <v>1.052183592426429</v>
       </c>
       <c r="K14">
-        <v>1.03055142012286</v>
+        <v>1.049903111259407</v>
       </c>
       <c r="L14">
-        <v>1.001269235597917</v>
+        <v>1.057574327636982</v>
       </c>
       <c r="M14">
-        <v>1.006649434228867</v>
+        <v>1.065090875615893</v>
       </c>
       <c r="N14">
-        <v>1.027513530702469</v>
+        <v>1.053677813814819</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9972864220204977</v>
+        <v>1.04581524715105</v>
       </c>
       <c r="D15">
-        <v>1.016496486140377</v>
+        <v>1.046469782933028</v>
       </c>
       <c r="E15">
-        <v>0.9868872866996719</v>
+        <v>1.054221005201078</v>
       </c>
       <c r="F15">
-        <v>0.9924346657143542</v>
+        <v>1.061775305028711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045500837793532</v>
+        <v>1.044936952507389</v>
       </c>
       <c r="J15">
-        <v>1.026620751255481</v>
+        <v>1.052277372547375</v>
       </c>
       <c r="K15">
-        <v>1.031043628975067</v>
+        <v>1.049982904756884</v>
       </c>
       <c r="L15">
-        <v>1.001987470356334</v>
+        <v>1.057706382730357</v>
       </c>
       <c r="M15">
-        <v>1.007427947575425</v>
+        <v>1.065234072614674</v>
       </c>
       <c r="N15">
-        <v>1.02807867047731</v>
+        <v>1.053771727114294</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001792602579403</v>
+        <v>1.046577859156755</v>
       </c>
       <c r="D16">
-        <v>1.019883738746029</v>
+        <v>1.047048148618233</v>
       </c>
       <c r="E16">
-        <v>0.9916261643584847</v>
+        <v>1.055103865707847</v>
       </c>
       <c r="F16">
-        <v>0.9975207556931506</v>
+        <v>1.062722335019831</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047384369765971</v>
+        <v>1.045195110802697</v>
       </c>
       <c r="J16">
-        <v>1.029858719952357</v>
+        <v>1.05282262702261</v>
       </c>
       <c r="K16">
-        <v>1.033867381081075</v>
+        <v>1.050446743674323</v>
       </c>
       <c r="L16">
-        <v>1.006111147290853</v>
+        <v>1.058474649534571</v>
       </c>
       <c r="M16">
-        <v>1.011898108564744</v>
+        <v>1.066067243472078</v>
       </c>
       <c r="N16">
-        <v>1.031321237461135</v>
+        <v>1.054317755913425</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004566244362863</v>
+        <v>1.047055872045591</v>
       </c>
       <c r="D17">
-        <v>1.021970176032305</v>
+        <v>1.047410626083674</v>
       </c>
       <c r="E17">
-        <v>0.9945453387985358</v>
+        <v>1.055657523129514</v>
       </c>
       <c r="F17">
-        <v>1.000653723397256</v>
+        <v>1.063316284665921</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048539905513842</v>
+        <v>1.045356428576699</v>
       </c>
       <c r="J17">
-        <v>1.031850072433069</v>
+        <v>1.053164136681127</v>
       </c>
       <c r="K17">
-        <v>1.035603650644867</v>
+        <v>1.050737176575496</v>
       </c>
       <c r="L17">
-        <v>1.008649688746264</v>
+        <v>1.058956258189832</v>
       </c>
       <c r="M17">
-        <v>1.014650300175165</v>
+        <v>1.066589611906102</v>
       </c>
       <c r="N17">
-        <v>1.033315417890782</v>
+        <v>1.054659750554829</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006165727479911</v>
+        <v>1.047334562810269</v>
       </c>
       <c r="D18">
-        <v>1.023173874157107</v>
+        <v>1.047621939913688</v>
       </c>
       <c r="E18">
-        <v>0.9962295995945846</v>
+        <v>1.05598041438696</v>
       </c>
       <c r="F18">
-        <v>1.002461308999582</v>
+        <v>1.063662692365394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049204878748005</v>
+        <v>1.045450300251818</v>
       </c>
       <c r="J18">
-        <v>1.032997807819051</v>
+        <v>1.053363149158417</v>
       </c>
       <c r="K18">
-        <v>1.036604236391926</v>
+        <v>1.050906394172738</v>
       </c>
       <c r="L18">
-        <v>1.010113733993662</v>
+        <v>1.059237064197321</v>
       </c>
       <c r="M18">
-        <v>1.016237691863611</v>
+        <v>1.066894209482621</v>
       </c>
       <c r="N18">
-        <v>1.034464783192659</v>
+        <v>1.054859045652664</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006708068153608</v>
+        <v>1.047429567899397</v>
       </c>
       <c r="D19">
-        <v>1.023582097477437</v>
+        <v>1.047693973348274</v>
       </c>
       <c r="E19">
-        <v>0.9968008329466901</v>
+        <v>1.056090504036216</v>
       </c>
       <c r="F19">
-        <v>1.003074365269518</v>
+        <v>1.063780803011976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0494301147988</v>
+        <v>1.04548227041604</v>
       </c>
       <c r="J19">
-        <v>1.033386865913466</v>
+        <v>1.053430976092051</v>
       </c>
       <c r="K19">
-        <v>1.036943391056171</v>
+        <v>1.050964061352745</v>
       </c>
       <c r="L19">
-        <v>1.010610176313679</v>
+        <v>1.059332793598215</v>
       </c>
       <c r="M19">
-        <v>1.016775981596147</v>
+        <v>1.066998054097836</v>
       </c>
       <c r="N19">
-        <v>1.034854393794193</v>
+        <v>1.054926968908324</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00427057175447</v>
+        <v>1.047004598857127</v>
       </c>
       <c r="D20">
-        <v>1.021747706487373</v>
+        <v>1.047371747402967</v>
       </c>
       <c r="E20">
-        <v>0.9942340642012965</v>
+        <v>1.055598125910207</v>
       </c>
       <c r="F20">
-        <v>1.000319654684602</v>
+        <v>1.063252562957491</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048416868629809</v>
+        <v>1.045339143706826</v>
       </c>
       <c r="J20">
-        <v>1.031637856849717</v>
+        <v>1.053127515014785</v>
       </c>
       <c r="K20">
-        <v>1.035418632226675</v>
+        <v>1.050706035234107</v>
       </c>
       <c r="L20">
-        <v>1.008379064053448</v>
+        <v>1.058904597367001</v>
       </c>
       <c r="M20">
-        <v>1.014356885678</v>
+        <v>1.066533576179926</v>
       </c>
       <c r="N20">
-        <v>1.033102900936959</v>
+        <v>1.05462307688152</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9961252248525952</v>
+        <v>1.045621492458819</v>
       </c>
       <c r="D21">
-        <v>1.015624136275062</v>
+        <v>1.046322824594267</v>
       </c>
       <c r="E21">
-        <v>0.9856668288447696</v>
+        <v>1.053996782777673</v>
       </c>
       <c r="F21">
-        <v>0.9911247518465922</v>
+        <v>1.061534800875494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045014288091832</v>
+        <v>1.044871209212257</v>
       </c>
       <c r="J21">
-        <v>1.025785846897394</v>
+        <v>1.052138760696958</v>
       </c>
       <c r="K21">
-        <v>1.030315429628828</v>
+        <v>1.049864964183582</v>
       </c>
       <c r="L21">
-        <v>1.000924932473584</v>
+        <v>1.057511206869078</v>
       </c>
       <c r="M21">
-        <v>1.006276242223727</v>
+        <v>1.065022430616535</v>
       </c>
       <c r="N21">
-        <v>1.027242580459269</v>
+        <v>1.05363291841915</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9908219502413461</v>
+        <v>1.044750714534912</v>
       </c>
       <c r="D22">
-        <v>1.01164281758843</v>
+        <v>1.045662289672538</v>
       </c>
       <c r="E22">
-        <v>0.980096260484437</v>
+        <v>1.052989484828921</v>
       </c>
       <c r="F22">
-        <v>0.9851456670715821</v>
+        <v>1.060454435531443</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042786406907645</v>
+        <v>1.044574987175653</v>
       </c>
       <c r="J22">
-        <v>1.021970330390396</v>
+        <v>1.051515410977896</v>
       </c>
       <c r="K22">
-        <v>1.026987103430358</v>
+        <v>1.049334448467771</v>
       </c>
       <c r="L22">
-        <v>0.9960726018906511</v>
+        <v>1.056634116496416</v>
       </c>
       <c r="M22">
-        <v>1.001017248495289</v>
+        <v>1.06407145519093</v>
       </c>
       <c r="N22">
-        <v>1.023421645481186</v>
+        <v>1.053008683471988</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9936514368602752</v>
+        <v>1.045212442102327</v>
       </c>
       <c r="D23">
-        <v>1.013766421055718</v>
+        <v>1.046012550677569</v>
       </c>
       <c r="E23">
-        <v>0.9830676933297343</v>
+        <v>1.053523519011335</v>
       </c>
       <c r="F23">
-        <v>0.9883350542258126</v>
+        <v>1.061027191931126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043976214302438</v>
+        <v>1.044732211420059</v>
       </c>
       <c r="J23">
-        <v>1.024006529496125</v>
+        <v>1.051846020737517</v>
       </c>
       <c r="K23">
-        <v>1.028763394951485</v>
+        <v>1.04961584691086</v>
       </c>
       <c r="L23">
-        <v>0.9986614282492896</v>
+        <v>1.057099176224751</v>
       </c>
       <c r="M23">
-        <v>1.003822930363748</v>
+        <v>1.064575668434208</v>
       </c>
       <c r="N23">
-        <v>1.0254607362232</v>
+        <v>1.053339762735389</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004404229963411</v>
+        <v>1.047027767393311</v>
       </c>
       <c r="D24">
-        <v>1.021848271833559</v>
+        <v>1.047389315354819</v>
       </c>
       <c r="E24">
-        <v>0.9943747726034821</v>
+        <v>1.055624965104079</v>
       </c>
       <c r="F24">
-        <v>1.000470667006828</v>
+        <v>1.063281356156508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048472491534985</v>
+        <v>1.045346954682172</v>
       </c>
       <c r="J24">
-        <v>1.031733790416847</v>
+        <v>1.053144063338876</v>
       </c>
       <c r="K24">
-        <v>1.035502271527475</v>
+        <v>1.050720107243539</v>
       </c>
       <c r="L24">
-        <v>1.008501398969889</v>
+        <v>1.058927941003041</v>
       </c>
       <c r="M24">
-        <v>1.014489522243584</v>
+        <v>1.066558896593693</v>
       </c>
       <c r="N24">
-        <v>1.033198970740759</v>
+        <v>1.05463964870613</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016169348451989</v>
+        <v>1.049129420237974</v>
       </c>
       <c r="D25">
-        <v>1.030710030176051</v>
+        <v>1.048982543795075</v>
       </c>
       <c r="E25">
-        <v>1.006779191653004</v>
+        <v>1.05806172335074</v>
       </c>
       <c r="F25">
-        <v>1.013783072357657</v>
+        <v>1.06589591190502</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05333862245434</v>
+        <v>1.046051616834288</v>
       </c>
       <c r="J25">
-        <v>1.040164539187875</v>
+        <v>1.05464314868589</v>
       </c>
       <c r="K25">
-        <v>1.04284960936683</v>
+        <v>1.051994212357805</v>
       </c>
       <c r="L25">
-        <v>1.019273173097919</v>
+        <v>1.061045895517195</v>
       </c>
       <c r="M25">
-        <v>1.026171126466929</v>
+        <v>1.068856768071873</v>
       </c>
       <c r="N25">
-        <v>1.041641692142062</v>
+        <v>1.056140862926284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05080186434227</v>
+        <v>1.025053549687269</v>
       </c>
       <c r="D2">
-        <v>1.050249810047854</v>
+        <v>1.037413121388026</v>
       </c>
       <c r="E2">
-        <v>1.060003990030804</v>
+        <v>1.016174651736239</v>
       </c>
       <c r="F2">
-        <v>1.067980466610889</v>
+        <v>1.023866130576105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046606682602516</v>
+        <v>1.056968587892327</v>
       </c>
       <c r="J2">
-        <v>1.05583309628923</v>
+        <v>1.046509890872537</v>
       </c>
       <c r="K2">
-        <v>1.053004610620832</v>
+        <v>1.048374723340225</v>
       </c>
       <c r="L2">
-        <v>1.06273195172191</v>
+        <v>1.027413154822732</v>
       </c>
       <c r="M2">
-        <v>1.070686875065925</v>
+        <v>1.03500269138362</v>
       </c>
       <c r="N2">
-        <v>1.05733250039171</v>
+        <v>1.047996054953938</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052014061284733</v>
+        <v>1.031246506656373</v>
       </c>
       <c r="D3">
-        <v>1.051167977104799</v>
+        <v>1.042090518924166</v>
       </c>
       <c r="E3">
-        <v>1.061413608125844</v>
+        <v>1.02274145843118</v>
       </c>
       <c r="F3">
-        <v>1.069493681379185</v>
+        <v>1.030913705360924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047005694322364</v>
+        <v>1.059472278201581</v>
       </c>
       <c r="J3">
-        <v>1.056693839362022</v>
+        <v>1.050920146051289</v>
       </c>
       <c r="K3">
-        <v>1.053734913709601</v>
+        <v>1.052211744691426</v>
       </c>
       <c r="L3">
-        <v>1.06395440644704</v>
+        <v>1.033091397459115</v>
       </c>
       <c r="M3">
-        <v>1.072014246483254</v>
+        <v>1.041165747697681</v>
       </c>
       <c r="N3">
-        <v>1.058194465818394</v>
+        <v>1.052412573200908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05279746527675</v>
+        <v>1.035143799879332</v>
       </c>
       <c r="D4">
-        <v>1.051761189961945</v>
+        <v>1.045035788098515</v>
       </c>
       <c r="E4">
-        <v>1.062325463957048</v>
+        <v>1.02688239706457</v>
       </c>
       <c r="F4">
-        <v>1.070472704132239</v>
+        <v>1.035357968989298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047262032593623</v>
+        <v>1.061035255103413</v>
       </c>
       <c r="J4">
-        <v>1.057249304227319</v>
+        <v>1.053689330448509</v>
       </c>
       <c r="K4">
-        <v>1.054205938955303</v>
+        <v>1.05461943571133</v>
       </c>
       <c r="L4">
-        <v>1.064744627865078</v>
+        <v>1.036666850172174</v>
       </c>
       <c r="M4">
-        <v>1.072872506913524</v>
+        <v>1.045047591228378</v>
       </c>
       <c r="N4">
-        <v>1.058750719507513</v>
+        <v>1.055185690157602</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053126579680875</v>
+        <v>1.036757163698133</v>
       </c>
       <c r="D5">
-        <v>1.052010362303743</v>
+        <v>1.046255388033378</v>
       </c>
       <c r="E5">
-        <v>1.062708750291446</v>
+        <v>1.028598676150877</v>
       </c>
       <c r="F5">
-        <v>1.070884259536921</v>
+        <v>1.037200014364858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047369355716905</v>
+        <v>1.061679209906513</v>
       </c>
       <c r="J5">
-        <v>1.057482466349722</v>
+        <v>1.054834157574329</v>
       </c>
       <c r="K5">
-        <v>1.054403593544523</v>
+        <v>1.055614424682651</v>
       </c>
       <c r="L5">
-        <v>1.065076652413702</v>
+        <v>1.038147506765166</v>
       </c>
       <c r="M5">
-        <v>1.073233171366599</v>
+        <v>1.046655398993619</v>
       </c>
       <c r="N5">
-        <v>1.058984212746873</v>
+        <v>1.056332143069254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053181826123727</v>
+        <v>1.037026620292964</v>
       </c>
       <c r="D6">
-        <v>1.052052186917682</v>
+        <v>1.046459098364907</v>
       </c>
       <c r="E6">
-        <v>1.062773102497405</v>
+        <v>1.028885443149726</v>
       </c>
       <c r="F6">
-        <v>1.070953360134082</v>
+        <v>1.037507798329343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04738734988637</v>
+        <v>1.061786578429088</v>
       </c>
       <c r="J6">
-        <v>1.057521594525255</v>
+        <v>1.055025270120287</v>
       </c>
       <c r="K6">
-        <v>1.054436759301476</v>
+        <v>1.055780500447597</v>
       </c>
       <c r="L6">
-        <v>1.065132390098241</v>
+        <v>1.038394830867484</v>
       </c>
       <c r="M6">
-        <v>1.073293719951136</v>
+        <v>1.046923977913131</v>
       </c>
       <c r="N6">
-        <v>1.059023396488904</v>
+        <v>1.056523527016948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052801863813898</v>
+        <v>1.035165454579173</v>
       </c>
       <c r="D7">
-        <v>1.051764520255037</v>
+        <v>1.045052156389317</v>
       </c>
       <c r="E7">
-        <v>1.062330585669284</v>
+        <v>1.026905424922411</v>
       </c>
       <c r="F7">
-        <v>1.070478203450725</v>
+        <v>1.035382684089198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047263468383749</v>
+        <v>1.061043910523677</v>
       </c>
       <c r="J7">
-        <v>1.057252421144365</v>
+        <v>1.053704702524116</v>
       </c>
       <c r="K7">
-        <v>1.054208581455329</v>
+        <v>1.054632797414576</v>
       </c>
       <c r="L7">
-        <v>1.064749065113169</v>
+        <v>1.036686721551847</v>
       </c>
       <c r="M7">
-        <v>1.072877326706551</v>
+        <v>1.045069167991745</v>
       </c>
       <c r="N7">
-        <v>1.058753840850938</v>
+        <v>1.055201084063318</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051211734450589</v>
+        <v>1.02717005041655</v>
       </c>
       <c r="D8">
-        <v>1.05056029685345</v>
+        <v>1.039011255977323</v>
       </c>
       <c r="E8">
-        <v>1.060480434012661</v>
+        <v>1.018417180755313</v>
       </c>
       <c r="F8">
-        <v>1.06849189420825</v>
+        <v>1.026272812284361</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046741914032007</v>
+        <v>1.057826880559636</v>
       </c>
       <c r="J8">
-        <v>1.056124299017303</v>
+        <v>1.048018427648778</v>
       </c>
       <c r="K8">
-        <v>1.053251737779101</v>
+        <v>1.049687503918631</v>
       </c>
       <c r="L8">
-        <v>1.063145251845415</v>
+        <v>1.029353327264152</v>
       </c>
       <c r="M8">
-        <v>1.071135601140844</v>
+        <v>1.03710828382365</v>
       </c>
       <c r="N8">
-        <v>1.057624116661058</v>
+        <v>1.049506734025434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04840216086682</v>
+        <v>1.012176686198944</v>
       </c>
       <c r="D9">
-        <v>1.048431309271082</v>
+        <v>1.027700615325764</v>
       </c>
       <c r="E9">
-        <v>1.057218018020967</v>
+        <v>1.00256518286305</v>
       </c>
       <c r="F9">
-        <v>1.064990557250941</v>
+        <v>1.009260664992317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045808654842678</v>
+        <v>1.05169420227306</v>
       </c>
       <c r="J9">
-        <v>1.054124865025325</v>
+        <v>1.037306662241127</v>
       </c>
       <c r="K9">
-        <v>1.051553860747625</v>
+        <v>1.040359705902386</v>
       </c>
       <c r="L9">
-        <v>1.060312898741372</v>
+        <v>1.015616778413163</v>
       </c>
       <c r="M9">
-        <v>1.068061376512633</v>
+        <v>1.022205260143486</v>
       </c>
       <c r="N9">
-        <v>1.055621843243473</v>
+        <v>1.038779756682247</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046523821947692</v>
+        <v>1.001476620119731</v>
       </c>
       <c r="D10">
-        <v>1.047007169813101</v>
+        <v>1.019646117050204</v>
       </c>
       <c r="E10">
-        <v>1.055041290496678</v>
+        <v>0.9912937172623758</v>
       </c>
       <c r="F10">
-        <v>1.062655208376574</v>
+        <v>0.9971639569045105</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045176850233391</v>
+        <v>1.047252538278464</v>
       </c>
       <c r="J10">
-        <v>1.052784008136719</v>
+        <v>1.029631774601968</v>
       </c>
       <c r="K10">
-        <v>1.050413896604615</v>
+        <v>1.033669489135561</v>
       </c>
       <c r="L10">
-        <v>1.058420208364607</v>
+        <v>1.005821965946496</v>
       </c>
       <c r="M10">
-        <v>1.066008198360382</v>
+        <v>1.011584606482245</v>
       </c>
       <c r="N10">
-        <v>1.054279082184287</v>
+        <v>1.031093969822318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04570917932395</v>
+        <v>0.9966515765923462</v>
       </c>
       <c r="D11">
-        <v>1.046389333722281</v>
+        <v>1.016019531806828</v>
       </c>
       <c r="E11">
-        <v>1.054098254166484</v>
+        <v>0.9862200082253872</v>
       </c>
       <c r="F11">
-        <v>1.061643639751161</v>
+        <v>0.991718479557142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044900970075839</v>
+        <v>1.045234891365585</v>
       </c>
       <c r="J11">
-        <v>1.052201495776108</v>
+        <v>1.02616432040389</v>
       </c>
       <c r="K11">
-        <v>1.049918344820675</v>
+        <v>1.030645537055496</v>
       </c>
       <c r="L11">
-        <v>1.057599536142916</v>
+        <v>1.001406559451175</v>
       </c>
       <c r="M11">
-        <v>1.065118210722145</v>
+        <v>1.006798281572067</v>
       </c>
       <c r="N11">
-        <v>1.053695742589308</v>
+        <v>1.027621591441557</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045406383943557</v>
+        <v>0.9948281290101809</v>
       </c>
       <c r="D12">
-        <v>1.046159663112978</v>
+        <v>1.014649946392539</v>
       </c>
       <c r="E12">
-        <v>1.053747887752961</v>
+        <v>0.9843038590499799</v>
       </c>
       <c r="F12">
-        <v>1.061267839859075</v>
+        <v>0.9896618618267937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044798148101218</v>
+        <v>1.044470246224261</v>
       </c>
       <c r="J12">
-        <v>1.051984834518383</v>
+        <v>1.024852996088221</v>
       </c>
       <c r="K12">
-        <v>1.049733981032742</v>
+        <v>1.029501757573194</v>
       </c>
       <c r="L12">
-        <v>1.057294527739424</v>
+        <v>0.9997380797795501</v>
       </c>
       <c r="M12">
-        <v>1.064787481818916</v>
+        <v>1.00498984107756</v>
       </c>
       <c r="N12">
-        <v>1.053478773647746</v>
+        <v>1.026308404894948</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045471343735009</v>
+        <v>0.9952207184515204</v>
       </c>
       <c r="D13">
-        <v>1.046208936366233</v>
+        <v>1.014944774038169</v>
       </c>
       <c r="E13">
-        <v>1.053823046284209</v>
+        <v>0.9847163511439491</v>
       </c>
       <c r="F13">
-        <v>1.061348452946586</v>
+        <v>0.9901045961115575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044820219527706</v>
+        <v>1.044634970768959</v>
       </c>
       <c r="J13">
-        <v>1.052031322273991</v>
+        <v>1.025135365927855</v>
       </c>
       <c r="K13">
-        <v>1.04977354102382</v>
+        <v>1.029748057329229</v>
       </c>
       <c r="L13">
-        <v>1.057359961044173</v>
+        <v>1.000097298205798</v>
       </c>
       <c r="M13">
-        <v>1.064858431070424</v>
+        <v>1.005379183643262</v>
       </c>
       <c r="N13">
-        <v>1.0535253274213</v>
+        <v>1.026591175732143</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045684154284207</v>
+        <v>0.9965015013398602</v>
       </c>
       <c r="D14">
-        <v>1.046370352738705</v>
+        <v>1.015906790767055</v>
       </c>
       <c r="E14">
-        <v>1.054069294449813</v>
+        <v>0.986062278028157</v>
       </c>
       <c r="F14">
-        <v>1.06161257723886</v>
+        <v>0.9915491879791636</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044892477883438</v>
+        <v>1.045172001981584</v>
       </c>
       <c r="J14">
-        <v>1.052183592426429</v>
+        <v>1.026056412905827</v>
       </c>
       <c r="K14">
-        <v>1.049903111259407</v>
+        <v>1.03055142012286</v>
       </c>
       <c r="L14">
-        <v>1.057574327636982</v>
+        <v>1.001269235597918</v>
       </c>
       <c r="M14">
-        <v>1.065090875615893</v>
+        <v>1.006649434228867</v>
       </c>
       <c r="N14">
-        <v>1.053677813814819</v>
+        <v>1.027513530702469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04581524715105</v>
+        <v>0.9972864220204987</v>
       </c>
       <c r="D15">
-        <v>1.046469782933028</v>
+        <v>1.016496486140378</v>
       </c>
       <c r="E15">
-        <v>1.054221005201078</v>
+        <v>0.9868872866996724</v>
       </c>
       <c r="F15">
-        <v>1.061775305028711</v>
+        <v>0.9924346657143551</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044936952507389</v>
+        <v>1.045500837793533</v>
       </c>
       <c r="J15">
-        <v>1.052277372547375</v>
+        <v>1.026620751255482</v>
       </c>
       <c r="K15">
-        <v>1.049982904756884</v>
+        <v>1.031043628975068</v>
       </c>
       <c r="L15">
-        <v>1.057706382730357</v>
+        <v>1.001987470356335</v>
       </c>
       <c r="M15">
-        <v>1.065234072614674</v>
+        <v>1.007427947575426</v>
       </c>
       <c r="N15">
-        <v>1.053771727114294</v>
+        <v>1.028078670477311</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046577859156755</v>
+        <v>1.001792602579403</v>
       </c>
       <c r="D16">
-        <v>1.047048148618233</v>
+        <v>1.019883738746029</v>
       </c>
       <c r="E16">
-        <v>1.055103865707847</v>
+        <v>0.9916261643584855</v>
       </c>
       <c r="F16">
-        <v>1.062722335019831</v>
+        <v>0.9975207556931511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045195110802697</v>
+        <v>1.047384369765971</v>
       </c>
       <c r="J16">
-        <v>1.05282262702261</v>
+        <v>1.029858719952357</v>
       </c>
       <c r="K16">
-        <v>1.050446743674323</v>
+        <v>1.033867381081075</v>
       </c>
       <c r="L16">
-        <v>1.058474649534571</v>
+        <v>1.006111147290854</v>
       </c>
       <c r="M16">
-        <v>1.066067243472078</v>
+        <v>1.011898108564745</v>
       </c>
       <c r="N16">
-        <v>1.054317755913425</v>
+        <v>1.031321237461135</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047055872045591</v>
+        <v>1.004566244362863</v>
       </c>
       <c r="D17">
-        <v>1.047410626083674</v>
+        <v>1.021970176032305</v>
       </c>
       <c r="E17">
-        <v>1.055657523129514</v>
+        <v>0.9945453387985352</v>
       </c>
       <c r="F17">
-        <v>1.063316284665921</v>
+        <v>1.000653723397256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045356428576699</v>
+        <v>1.048539905513842</v>
       </c>
       <c r="J17">
-        <v>1.053164136681127</v>
+        <v>1.031850072433069</v>
       </c>
       <c r="K17">
-        <v>1.050737176575496</v>
+        <v>1.035603650644866</v>
       </c>
       <c r="L17">
-        <v>1.058956258189832</v>
+        <v>1.008649688746263</v>
       </c>
       <c r="M17">
-        <v>1.066589611906102</v>
+        <v>1.014650300175165</v>
       </c>
       <c r="N17">
-        <v>1.054659750554829</v>
+        <v>1.033315417890781</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047334562810269</v>
+        <v>1.006165727479911</v>
       </c>
       <c r="D18">
-        <v>1.047621939913688</v>
+        <v>1.023173874157109</v>
       </c>
       <c r="E18">
-        <v>1.05598041438696</v>
+        <v>0.9962295995945855</v>
       </c>
       <c r="F18">
-        <v>1.063662692365394</v>
+        <v>1.002461308999583</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045450300251818</v>
+        <v>1.049204878748005</v>
       </c>
       <c r="J18">
-        <v>1.053363149158417</v>
+        <v>1.032997807819052</v>
       </c>
       <c r="K18">
-        <v>1.050906394172738</v>
+        <v>1.036604236391927</v>
       </c>
       <c r="L18">
-        <v>1.059237064197321</v>
+        <v>1.010113733993663</v>
       </c>
       <c r="M18">
-        <v>1.066894209482621</v>
+        <v>1.016237691863612</v>
       </c>
       <c r="N18">
-        <v>1.054859045652664</v>
+        <v>1.03446478319266</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047429567899397</v>
+        <v>1.006708068153607</v>
       </c>
       <c r="D19">
-        <v>1.047693973348274</v>
+        <v>1.023582097477436</v>
       </c>
       <c r="E19">
-        <v>1.056090504036216</v>
+        <v>0.9968008329466889</v>
       </c>
       <c r="F19">
-        <v>1.063780803011976</v>
+        <v>1.003074365269517</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04548227041604</v>
+        <v>1.0494301147988</v>
       </c>
       <c r="J19">
-        <v>1.053430976092051</v>
+        <v>1.033386865913465</v>
       </c>
       <c r="K19">
-        <v>1.050964061352745</v>
+        <v>1.03694339105617</v>
       </c>
       <c r="L19">
-        <v>1.059332793598215</v>
+        <v>1.010610176313678</v>
       </c>
       <c r="M19">
-        <v>1.066998054097836</v>
+        <v>1.016775981596145</v>
       </c>
       <c r="N19">
-        <v>1.054926968908324</v>
+        <v>1.034854393794192</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047004598857127</v>
+        <v>1.004270571754468</v>
       </c>
       <c r="D20">
-        <v>1.047371747402967</v>
+        <v>1.021747706487371</v>
       </c>
       <c r="E20">
-        <v>1.055598125910207</v>
+        <v>0.9942340642012957</v>
       </c>
       <c r="F20">
-        <v>1.063252562957491</v>
+        <v>1.000319654684602</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045339143706826</v>
+        <v>1.048416868629808</v>
       </c>
       <c r="J20">
-        <v>1.053127515014785</v>
+        <v>1.031637856849715</v>
       </c>
       <c r="K20">
-        <v>1.050706035234107</v>
+        <v>1.035418632226674</v>
       </c>
       <c r="L20">
-        <v>1.058904597367001</v>
+        <v>1.008379064053448</v>
       </c>
       <c r="M20">
-        <v>1.066533576179926</v>
+        <v>1.014356885677999</v>
       </c>
       <c r="N20">
-        <v>1.05462307688152</v>
+        <v>1.033102900936958</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045621492458819</v>
+        <v>0.9961252248525948</v>
       </c>
       <c r="D21">
-        <v>1.046322824594267</v>
+        <v>1.015624136275062</v>
       </c>
       <c r="E21">
-        <v>1.053996782777673</v>
+        <v>0.9856668288447695</v>
       </c>
       <c r="F21">
-        <v>1.061534800875494</v>
+        <v>0.9911247518465921</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044871209212257</v>
+        <v>1.045014288091832</v>
       </c>
       <c r="J21">
-        <v>1.052138760696958</v>
+        <v>1.025785846897394</v>
       </c>
       <c r="K21">
-        <v>1.049864964183582</v>
+        <v>1.030315429628828</v>
       </c>
       <c r="L21">
-        <v>1.057511206869078</v>
+        <v>1.000924932473584</v>
       </c>
       <c r="M21">
-        <v>1.065022430616535</v>
+        <v>1.006276242223727</v>
       </c>
       <c r="N21">
-        <v>1.05363291841915</v>
+        <v>1.027242580459269</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044750714534912</v>
+        <v>0.9908219502413456</v>
       </c>
       <c r="D22">
-        <v>1.045662289672538</v>
+        <v>1.01164281758843</v>
       </c>
       <c r="E22">
-        <v>1.052989484828921</v>
+        <v>0.9800962604844363</v>
       </c>
       <c r="F22">
-        <v>1.060454435531443</v>
+        <v>0.9851456670715815</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044574987175653</v>
+        <v>1.042786406907645</v>
       </c>
       <c r="J22">
-        <v>1.051515410977896</v>
+        <v>1.021970330390395</v>
       </c>
       <c r="K22">
-        <v>1.049334448467771</v>
+        <v>1.026987103430357</v>
       </c>
       <c r="L22">
-        <v>1.056634116496416</v>
+        <v>0.9960726018906505</v>
       </c>
       <c r="M22">
-        <v>1.06407145519093</v>
+        <v>1.001017248495289</v>
       </c>
       <c r="N22">
-        <v>1.053008683471988</v>
+        <v>1.023421645481185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045212442102327</v>
+        <v>0.9936514368602751</v>
       </c>
       <c r="D23">
-        <v>1.046012550677569</v>
+        <v>1.013766421055718</v>
       </c>
       <c r="E23">
-        <v>1.053523519011335</v>
+        <v>0.9830676933297351</v>
       </c>
       <c r="F23">
-        <v>1.061027191931126</v>
+        <v>0.9883350542258135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044732211420059</v>
+        <v>1.043976214302438</v>
       </c>
       <c r="J23">
-        <v>1.051846020737517</v>
+        <v>1.024006529496125</v>
       </c>
       <c r="K23">
-        <v>1.04961584691086</v>
+        <v>1.028763394951484</v>
       </c>
       <c r="L23">
-        <v>1.057099176224751</v>
+        <v>0.9986614282492904</v>
       </c>
       <c r="M23">
-        <v>1.064575668434208</v>
+        <v>1.003822930363749</v>
       </c>
       <c r="N23">
-        <v>1.053339762735389</v>
+        <v>1.0254607362232</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047027767393311</v>
+        <v>1.00440422996341</v>
       </c>
       <c r="D24">
-        <v>1.047389315354819</v>
+        <v>1.021848271833558</v>
       </c>
       <c r="E24">
-        <v>1.055624965104079</v>
+        <v>0.9943747726034823</v>
       </c>
       <c r="F24">
-        <v>1.063281356156508</v>
+        <v>1.000470667006828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045346954682172</v>
+        <v>1.048472491534985</v>
       </c>
       <c r="J24">
-        <v>1.053144063338876</v>
+        <v>1.031733790416846</v>
       </c>
       <c r="K24">
-        <v>1.050720107243539</v>
+        <v>1.035502271527474</v>
       </c>
       <c r="L24">
-        <v>1.058927941003041</v>
+        <v>1.00850139896989</v>
       </c>
       <c r="M24">
-        <v>1.066558896593693</v>
+        <v>1.014489522243584</v>
       </c>
       <c r="N24">
-        <v>1.05463964870613</v>
+        <v>1.033198970740758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049129420237974</v>
+        <v>1.016169348451989</v>
       </c>
       <c r="D25">
-        <v>1.048982543795075</v>
+        <v>1.030710030176052</v>
       </c>
       <c r="E25">
-        <v>1.05806172335074</v>
+        <v>1.006779191653004</v>
       </c>
       <c r="F25">
-        <v>1.06589591190502</v>
+        <v>1.013783072357658</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046051616834288</v>
+        <v>1.05333862245434</v>
       </c>
       <c r="J25">
-        <v>1.05464314868589</v>
+        <v>1.040164539187875</v>
       </c>
       <c r="K25">
-        <v>1.051994212357805</v>
+        <v>1.04284960936683</v>
       </c>
       <c r="L25">
-        <v>1.061045895517195</v>
+        <v>1.01927317309792</v>
       </c>
       <c r="M25">
-        <v>1.068856768071873</v>
+        <v>1.02617112646693</v>
       </c>
       <c r="N25">
-        <v>1.056140862926284</v>
+        <v>1.041641692142062</v>
       </c>
     </row>
   </sheetData>
